--- a/Suspension/solutions/Analysis/Dynamic/Half Car/6 Degrees of Freedom/Amplitude/HalfCar_Amplitude_DOF-6_Teste do coxim do motor_20220201184442.xlsx
+++ b/Suspension/solutions/Analysis/Dynamic/Half Car/6 Degrees of Freedom/Amplitude/HalfCar_Amplitude_DOF-6_Teste do coxim do motor_20220201184442.xlsx
@@ -8,17 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Bruno\GitHub\MudRunner\Suspension\solutions\Analysis\Dynamic\Half Car\6 Degrees of Freedom\Amplitude\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1A7D2DA2-FA91-45B3-8875-DF25A1598AB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{3168D027-26B3-4B28-9C5B-CE0283BD3480}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4200" yWindow="4200" windowWidth="28800" windowHeight="10230" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="4200" yWindow="4200" windowWidth="28800" windowHeight="10230"/>
   </bookViews>
   <sheets>
     <sheet name="HalfCar_Amplitude_DOF-6_Teste d" sheetId="1" r:id="rId1"/>
     <sheet name="Planilha1" sheetId="2" r:id="rId2"/>
-    <sheet name="Displacement x stiffness log" sheetId="6" r:id="rId3"/>
-    <sheet name="Planilha2" sheetId="4" r:id="rId4"/>
-    <sheet name="Displacements" sheetId="3" r:id="rId5"/>
-    <sheet name="Displacement x stifness" sheetId="5" r:id="rId6"/>
+    <sheet name="Planilha2" sheetId="4" r:id="rId3"/>
+    <sheet name="Displacements" sheetId="3" r:id="rId4"/>
+    <sheet name="Displacement x stifness" sheetId="5" r:id="rId5"/>
+    <sheet name="Displacement x stiffness log" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -669,1661 +669,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="pt-BR"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Planilha2!$C$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Car linear displacement</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Planilha2!$B$2:$B$31</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="30"/>
-                <c:pt idx="0">
-                  <c:v>5.143095663669496</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5.4107286232378486</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5.6425185572604795</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5.8469271673687198</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6.0297320570370934</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6.0449062721378519</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6.19505416895288</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>6.3120787754314831</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>6.3459362678018332</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>6.4846890769365348</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>6.5433384248434594</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>6.6131087709896175</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>6.7326192534790152</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>6.7471473510457773</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>6.8443684204452939</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>6.9292836407167728</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>6.9492951908348424</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>7.0481773468652351</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>7.0938687726671201</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>7.1416664228926283</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>7.2303136364829728</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>7.2439461006430435</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>7.3818269859859589</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>7.5093082920228182</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>7.6278146583765798</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>7.738494763368319</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>7.8422883526862144</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>7.9399740782135586</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>8.0322043856863292</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>8.1195314415543187</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Planilha2!$C$2:$C$31</c:f>
-              <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="30"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>8.1310884785309502E-4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.2308102469016341E-3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.4580936690043237E-3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.5895688243234226E-3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.5986943506846709E-3</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.6704418090558578E-3</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.7111570005046287E-3</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.7213750563260148E-3</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.7549633187945246E-3</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.7663093551264838E-3</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.7780211654421815E-3</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.7941698124130888E-3</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1.7959020919832913E-3</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1.8057672300803801E-3</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1.8127693134124922E-3</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1.8142265800970129E-3</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1.8205877728173141E-3</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1.8229706767726875E-3</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1.825371165906587E-3</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1.8289906242709669E-3</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1.8294543881230141E-3</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1.8337733826365857E-3</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>1.8366814794736634E-3</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>1.8387178189899185E-3</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>1.8401915938288365E-3</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>1.8412575766180489E-3</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>1.8420606204443309E-3</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>1.8426743222203959E-3</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>1.8431393564337574E-3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-1E94-43A4-933D-4887E6607D28}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Planilha2!$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Car angular displacement</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Planilha2!$B$2:$B$31</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="30"/>
-                <c:pt idx="0">
-                  <c:v>5.143095663669496</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5.4107286232378486</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5.6425185572604795</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5.8469271673687198</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6.0297320570370934</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6.0449062721378519</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6.19505416895288</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>6.3120787754314831</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>6.3459362678018332</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>6.4846890769365348</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>6.5433384248434594</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>6.6131087709896175</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>6.7326192534790152</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>6.7471473510457773</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>6.8443684204452939</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>6.9292836407167728</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>6.9492951908348424</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>7.0481773468652351</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>7.0938687726671201</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>7.1416664228926283</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>7.2303136364829728</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>7.2439461006430435</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>7.3818269859859589</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>7.5093082920228182</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>7.6278146583765798</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>7.738494763368319</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>7.8422883526862144</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>7.9399740782135586</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>8.0322043856863292</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>8.1195314415543187</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Planilha2!$D$2:$D$31</c:f>
-              <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="30"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>9.7551434964918322E-4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.4765627178696501E-3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.7491689220120073E-3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.9068516144707247E-3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.9177958906119107E-3</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2.0038415694008669E-3</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2.0526696650925761E-3</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2.0649236502444492E-3</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2.1052039742815356E-3</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2.118810455145532E-3</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2.1328555194137875E-3</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2.1522212320748482E-3</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2.1542986018726496E-3</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2.1661289632525782E-3</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2.1745258961358483E-3</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2.1762734546420981E-3</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2.1839018039309342E-3</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2.186759380057851E-3</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>2.1896380415881715E-3</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2.1939784833853149E-3</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>2.1945346269023054E-3</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>2.1997139409005847E-3</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>2.2032013094847461E-3</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>2.2056432703854391E-3</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>2.2074106074019182E-3</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>2.2086889236895262E-3</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>2.209651925146864E-3</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>2.2103878698043885E-3</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>2.2109455339098224E-3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-1E94-43A4-933D-4887E6607D28}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Planilha2!$E$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Engine linear displacement</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Planilha2!$B$2:$B$31</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="30"/>
-                <c:pt idx="0">
-                  <c:v>5.143095663669496</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5.4107286232378486</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5.6425185572604795</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5.8469271673687198</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6.0297320570370934</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6.0449062721378519</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6.19505416895288</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>6.3120787754314831</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>6.3459362678018332</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>6.4846890769365348</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>6.5433384248434594</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>6.6131087709896175</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>6.7326192534790152</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>6.7471473510457773</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>6.8443684204452939</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>6.9292836407167728</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>6.9492951908348424</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>7.0481773468652351</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>7.0938687726671201</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>7.1416664228926283</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>7.2303136364829728</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>7.2439461006430435</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>7.3818269859859589</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>7.5093082920228182</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>7.6278146583765798</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>7.738494763368319</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>7.8422883526862144</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>7.9399740782135586</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>8.0322043856863292</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>8.1195314415543187</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Planilha2!$E$2:$E$31</c:f>
-              <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="30"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-1.3179453757372374E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-1.9892069064486657E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-2.3529365664330854E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-2.5628706057289442E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-2.5774293189236824E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-2.6918379129731135E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-2.7567184152432655E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-2.7729961305891386E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-2.8264894058680913E-2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-2.844554477035963E-2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>-2.8631993788782551E-2</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>-2.8889033682152766E-2</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>-2.8916603661617475E-2</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>-2.9073600847440446E-2</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>-2.9185023306197138E-2</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>-2.9208211281462098E-2</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>-2.9309425690448851E-2</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>-2.9347338672677605E-2</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>-2.9385530367886187E-2</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>-2.9443113779503215E-2</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>-2.9450491807185637E-2</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>-2.951920083622302E-2</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>-2.9565462535545928E-2</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>-2.9597855469706075E-2</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>-2.962129895890615E-2</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>-2.9638255407813355E-2</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>-2.965102917788465E-2</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>-2.9660791065977292E-2</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>-2.966818811079255E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-1E94-43A4-933D-4887E6607D28}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Planilha2!$F$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Driver linear displacement</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Planilha2!$B$2:$B$31</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="30"/>
-                <c:pt idx="0">
-                  <c:v>5.143095663669496</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5.4107286232378486</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5.6425185572604795</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5.8469271673687198</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6.0297320570370934</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6.0449062721378519</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6.19505416895288</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>6.3120787754314831</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>6.3459362678018332</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>6.4846890769365348</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>6.5433384248434594</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>6.6131087709896175</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>6.7326192534790152</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>6.7471473510457773</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>6.8443684204452939</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>6.9292836407167728</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>6.9492951908348424</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>7.0481773468652351</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>7.0938687726671201</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>7.1416664228926283</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>7.2303136364829728</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>7.2439461006430435</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>7.3818269859859589</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>7.5093082920228182</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>7.6278146583765798</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>7.738494763368319</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>7.8422883526862144</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>7.9399740782135586</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>8.0322043856863292</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>8.1195314415543187</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Planilha2!$F$2:$F$31</c:f>
-              <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="30"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6.8898911941220483E-4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.0431902602919103E-3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.2359952969239819E-3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.3475496438183335E-3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.3552931342340562E-3</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.4161775378964715E-3</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.4507304590277513E-3</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.4594022653123828E-3</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.4879085105248678E-3</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.4975381075353976E-3</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.5074782784708462E-3</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.5211843522927894E-3</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1.5226546303205293E-3</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1.5310277559713766E-3</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1.5369708966586203E-3</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1.5382077833900562E-3</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1.5436070085170157E-3</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1.5456295696089635E-3</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1.5476670623666817E-3</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1.550739205501807E-3</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1.5511328423985621E-3</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1.5547987606145727E-3</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>1.5572671338097864E-3</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>1.5589955702252575E-3</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>1.5602465066924772E-3</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>1.5611513115774056E-3</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>1.5618329349960862E-3</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>1.5623538453135417E-3</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>1.562748566816252E-3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-1E94-43A4-933D-4887E6607D28}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Planilha2!$G$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Rear linear displacement</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Planilha2!$B$2:$B$31</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="30"/>
-                <c:pt idx="0">
-                  <c:v>5.143095663669496</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5.4107286232378486</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5.6425185572604795</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5.8469271673687198</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6.0297320570370934</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6.0449062721378519</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6.19505416895288</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>6.3120787754314831</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>6.3459362678018332</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>6.4846890769365348</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>6.5433384248434594</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>6.6131087709896175</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>6.7326192534790152</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>6.7471473510457773</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>6.8443684204452939</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>6.9292836407167728</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>6.9492951908348424</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>7.0481773468652351</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>7.0938687726671201</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>7.1416664228926283</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>7.2303136364829728</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>7.2439461006430435</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>7.3818269859859589</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>7.5093082920228182</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>7.6278146583765798</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>7.738494763368319</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>7.8422883526862144</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>7.9399740782135586</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>8.0322043856863292</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>8.1195314415543187</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Planilha2!$G$2:$G$31</c:f>
-              <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="30"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-8.2055169261462119E-5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-1.2408237970444627E-4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-1.4691037705691479E-4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-1.6010192354259332E-4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-1.6101715382954514E-4</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-1.6821122000652895E-4</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-1.7229232720740266E-4</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-1.7331638164550152E-4</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-1.7668215326552736E-4</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-1.7781894772154761E-4</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>-1.7899230770686107E-4</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>-1.8061003907718446E-4</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>-1.8078356505373401E-4</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>-1.8177174089602311E-4</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>-1.8247309262228473E-4</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>-1.8261905345672325E-4</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>-1.8325617961519706E-4</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>-1.8349484075974232E-4</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>-1.837352596366733E-4</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>-1.8409775657977123E-4</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>-1.8414420299867699E-4</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>-1.8457674825841531E-4</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>-1.8486798629954306E-4</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>-1.8507191710611496E-4</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>-1.8521950780316489E-4</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>-1.8532625950179083E-4</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>-1.8540667897328259E-4</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>-1.8546813689084514E-4</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>-1.8551470655168094E-4</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-1E94-43A4-933D-4887E6607D28}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Planilha2!$H$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Front linear displacement</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Planilha2!$B$2:$B$31</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="30"/>
-                <c:pt idx="0">
-                  <c:v>5.143095663669496</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5.4107286232378486</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5.6425185572604795</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5.8469271673687198</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6.0297320570370934</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6.0449062721378519</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6.19505416895288</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>6.3120787754314831</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>6.3459362678018332</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>6.4846890769365348</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>6.5433384248434594</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>6.6131087709896175</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>6.7326192534790152</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>6.7471473510457773</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>6.8443684204452939</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>6.9292836407167728</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>6.9492951908348424</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>7.0481773468652351</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>7.0938687726671201</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>7.1416664228926283</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>7.2303136364829728</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>7.2439461006430435</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>7.3818269859859589</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>7.5093082920228182</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>7.6278146583765798</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>7.738494763368319</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>7.8422883526862144</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>7.9399740782135586</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>8.0322043856863292</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>8.1195314415543187</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Planilha2!$H$2:$H$31</c:f>
-              <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="30"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.7135869050916011E-3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.6088856984512088E-3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.1088724892231077E-3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.4036678202438893E-3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3.4242992082052586E-3</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3.5873258353920677E-3</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3.6805062933173258E-3</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>3.7039694543165818E-3</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3.7813222451472009E-3</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>3.8075312004665807E-3</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>3.8346277108620417E-3</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>3.8720610154182691E-3</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>3.8760814909809351E-3</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>3.8989961360394254E-3</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>3.9152796752471427E-3</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>3.9186705988885542E-3</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>3.9334806372510796E-3</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>3.9390318968518792E-3</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>3.944626011250443E-3</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>3.9530644081962737E-3</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>3.9541459386587012E-3</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>3.9642215568508731E-3</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>3.971009225970241E-3</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>3.9757638334399293E-3</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>3.9792057795952534E-3</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>3.9816957932710803E-3</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>3.9835718616707903E-3</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>3.9850057351494932E-3</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>3.9860923391307661E-3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-1E94-43A4-933D-4887E6607D28}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="1089988304"/>
-        <c:axId val="1000130416"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="1089988304"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="8.1999999999999993"/>
-          <c:min val="5"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="cross"/>
-        <c:minorTickMark val="cross"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1000130416"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-        <c:majorUnit val="0.2"/>
-        <c:minorUnit val="0.1"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="1000130416"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
-        <c:majorTickMark val="cross"/>
-        <c:minorTickMark val="cross"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1089988304"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-        <c:majorUnit val="2.5000000000000005E-3"/>
-        <c:minorUnit val="1.2500000000000002E-3"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="pt-BR"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="pt-BR"/>
-    </a:p>
-  </c:txPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="pt-BR"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
       <c:tx>
         <c:rich>
           <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
@@ -3987,7 +2332,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="pt-BR"/>
@@ -5588,6 +3933,1661 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="1200654160"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="2.5000000000000005E-3"/>
+        <c:minorUnit val="1.2500000000000002E-3"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Planilha2!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Car linear displacement</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Planilha2!$B$2:$B$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>5.143095663669496</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.4107286232378486</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.6425185572604795</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.8469271673687198</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.0297320570370934</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0449062721378519</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.19505416895288</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.3120787754314831</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.3459362678018332</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.4846890769365348</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.5433384248434594</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6.6131087709896175</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6.7326192534790152</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.7471473510457773</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6.8443684204452939</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6.9292836407167728</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6.9492951908348424</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>7.0481773468652351</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>7.0938687726671201</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>7.1416664228926283</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>7.2303136364829728</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>7.2439461006430435</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>7.3818269859859589</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>7.5093082920228182</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>7.6278146583765798</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>7.738494763368319</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>7.8422883526862144</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>7.9399740782135586</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>8.0322043856863292</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>8.1195314415543187</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Planilha2!$C$2:$C$31</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.1310884785309502E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.2308102469016341E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.4580936690043237E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.5895688243234226E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.5986943506846709E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.6704418090558578E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.7111570005046287E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.7213750563260148E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.7549633187945246E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.7663093551264838E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.7780211654421815E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.7941698124130888E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.7959020919832913E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.8057672300803801E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.8127693134124922E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.8142265800970129E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.8205877728173141E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.8229706767726875E-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.825371165906587E-3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.8289906242709669E-3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.8294543881230141E-3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.8337733826365857E-3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.8366814794736634E-3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.8387178189899185E-3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.8401915938288365E-3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.8412575766180489E-3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.8420606204443309E-3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.8426743222203959E-3</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.8431393564337574E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1E94-43A4-933D-4887E6607D28}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Planilha2!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Car angular displacement</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Planilha2!$B$2:$B$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>5.143095663669496</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.4107286232378486</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.6425185572604795</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.8469271673687198</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.0297320570370934</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0449062721378519</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.19505416895288</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.3120787754314831</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.3459362678018332</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.4846890769365348</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.5433384248434594</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6.6131087709896175</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6.7326192534790152</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.7471473510457773</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6.8443684204452939</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6.9292836407167728</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6.9492951908348424</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>7.0481773468652351</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>7.0938687726671201</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>7.1416664228926283</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>7.2303136364829728</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>7.2439461006430435</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>7.3818269859859589</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>7.5093082920228182</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>7.6278146583765798</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>7.738494763368319</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>7.8422883526862144</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>7.9399740782135586</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>8.0322043856863292</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>8.1195314415543187</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Planilha2!$D$2:$D$31</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.7551434964918322E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.4765627178696501E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.7491689220120073E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.9068516144707247E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.9177958906119107E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.0038415694008669E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.0526696650925761E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.0649236502444492E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.1052039742815356E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.118810455145532E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.1328555194137875E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.1522212320748482E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.1542986018726496E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.1661289632525782E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.1745258961358483E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.1762734546420981E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.1839018039309342E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.186759380057851E-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.1896380415881715E-3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.1939784833853149E-3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.1945346269023054E-3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.1997139409005847E-3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.2032013094847461E-3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.2056432703854391E-3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.2074106074019182E-3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.2086889236895262E-3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.209651925146864E-3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.2103878698043885E-3</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.2109455339098224E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-1E94-43A4-933D-4887E6607D28}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Planilha2!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Engine linear displacement</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Planilha2!$B$2:$B$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>5.143095663669496</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.4107286232378486</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.6425185572604795</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.8469271673687198</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.0297320570370934</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0449062721378519</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.19505416895288</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.3120787754314831</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.3459362678018332</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.4846890769365348</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.5433384248434594</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6.6131087709896175</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6.7326192534790152</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.7471473510457773</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6.8443684204452939</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6.9292836407167728</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6.9492951908348424</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>7.0481773468652351</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>7.0938687726671201</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>7.1416664228926283</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>7.2303136364829728</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>7.2439461006430435</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>7.3818269859859589</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>7.5093082920228182</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>7.6278146583765798</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>7.738494763368319</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>7.8422883526862144</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>7.9399740782135586</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>8.0322043856863292</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>8.1195314415543187</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Planilha2!$E$2:$E$31</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1.3179453757372374E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-1.9892069064486657E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-2.3529365664330854E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-2.5628706057289442E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-2.5774293189236824E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-2.6918379129731135E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-2.7567184152432655E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-2.7729961305891386E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-2.8264894058680913E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-2.844554477035963E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-2.8631993788782551E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-2.8889033682152766E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-2.8916603661617475E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-2.9073600847440446E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-2.9185023306197138E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-2.9208211281462098E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-2.9309425690448851E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-2.9347338672677605E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-2.9385530367886187E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-2.9443113779503215E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-2.9450491807185637E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-2.951920083622302E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-2.9565462535545928E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-2.9597855469706075E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-2.962129895890615E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-2.9638255407813355E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-2.965102917788465E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-2.9660791065977292E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-2.966818811079255E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-1E94-43A4-933D-4887E6607D28}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Planilha2!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Driver linear displacement</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Planilha2!$B$2:$B$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>5.143095663669496</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.4107286232378486</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.6425185572604795</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.8469271673687198</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.0297320570370934</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0449062721378519</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.19505416895288</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.3120787754314831</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.3459362678018332</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.4846890769365348</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.5433384248434594</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6.6131087709896175</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6.7326192534790152</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.7471473510457773</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6.8443684204452939</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6.9292836407167728</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6.9492951908348424</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>7.0481773468652351</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>7.0938687726671201</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>7.1416664228926283</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>7.2303136364829728</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>7.2439461006430435</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>7.3818269859859589</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>7.5093082920228182</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>7.6278146583765798</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>7.738494763368319</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>7.8422883526862144</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>7.9399740782135586</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>8.0322043856863292</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>8.1195314415543187</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Planilha2!$F$2:$F$31</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.8898911941220483E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0431902602919103E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.2359952969239819E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.3475496438183335E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.3552931342340562E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.4161775378964715E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.4507304590277513E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.4594022653123828E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.4879085105248678E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.4975381075353976E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.5074782784708462E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.5211843522927894E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.5226546303205293E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.5310277559713766E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.5369708966586203E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.5382077833900562E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.5436070085170157E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.5456295696089635E-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.5476670623666817E-3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.550739205501807E-3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.5511328423985621E-3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.5547987606145727E-3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.5572671338097864E-3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.5589955702252575E-3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.5602465066924772E-3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.5611513115774056E-3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.5618329349960862E-3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.5623538453135417E-3</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.562748566816252E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-1E94-43A4-933D-4887E6607D28}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Planilha2!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Rear linear displacement</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Planilha2!$B$2:$B$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>5.143095663669496</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.4107286232378486</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.6425185572604795</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.8469271673687198</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.0297320570370934</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0449062721378519</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.19505416895288</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.3120787754314831</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.3459362678018332</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.4846890769365348</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.5433384248434594</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6.6131087709896175</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6.7326192534790152</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.7471473510457773</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6.8443684204452939</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6.9292836407167728</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6.9492951908348424</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>7.0481773468652351</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>7.0938687726671201</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>7.1416664228926283</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>7.2303136364829728</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>7.2439461006430435</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>7.3818269859859589</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>7.5093082920228182</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>7.6278146583765798</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>7.738494763368319</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>7.8422883526862144</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>7.9399740782135586</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>8.0322043856863292</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>8.1195314415543187</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Planilha2!$G$2:$G$31</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-8.2055169261462119E-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-1.2408237970444627E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1.4691037705691479E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1.6010192354259332E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-1.6101715382954514E-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-1.6821122000652895E-4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-1.7229232720740266E-4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-1.7331638164550152E-4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-1.7668215326552736E-4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-1.7781894772154761E-4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-1.7899230770686107E-4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-1.8061003907718446E-4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-1.8078356505373401E-4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-1.8177174089602311E-4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-1.8247309262228473E-4</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-1.8261905345672325E-4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-1.8325617961519706E-4</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-1.8349484075974232E-4</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-1.837352596366733E-4</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-1.8409775657977123E-4</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-1.8414420299867699E-4</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-1.8457674825841531E-4</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-1.8486798629954306E-4</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-1.8507191710611496E-4</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-1.8521950780316489E-4</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-1.8532625950179083E-4</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-1.8540667897328259E-4</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-1.8546813689084514E-4</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-1.8551470655168094E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-1E94-43A4-933D-4887E6607D28}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Planilha2!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Front linear displacement</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Planilha2!$B$2:$B$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>5.143095663669496</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.4107286232378486</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.6425185572604795</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.8469271673687198</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.0297320570370934</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0449062721378519</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.19505416895288</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.3120787754314831</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.3459362678018332</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.4846890769365348</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.5433384248434594</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6.6131087709896175</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6.7326192534790152</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.7471473510457773</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6.8443684204452939</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6.9292836407167728</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6.9492951908348424</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>7.0481773468652351</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>7.0938687726671201</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>7.1416664228926283</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>7.2303136364829728</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>7.2439461006430435</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>7.3818269859859589</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>7.5093082920228182</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>7.6278146583765798</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>7.738494763368319</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>7.8422883526862144</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>7.9399740782135586</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>8.0322043856863292</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>8.1195314415543187</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Planilha2!$H$2:$H$31</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.7135869050916011E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.6088856984512088E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.1088724892231077E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.4036678202438893E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.4242992082052586E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.5873258353920677E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.6805062933173258E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.7039694543165818E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.7813222451472009E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.8075312004665807E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.8346277108620417E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.8720610154182691E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.8760814909809351E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.8989961360394254E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.9152796752471427E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.9186705988885542E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.9334806372510796E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.9390318968518792E-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.944626011250443E-3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.9530644081962737E-3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.9541459386587012E-3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.9642215568508731E-3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3.971009225970241E-3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3.9757638334399293E-3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3.9792057795952534E-3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3.9816957932710803E-3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3.9835718616707903E-3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3.9850057351494932E-3</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3.9860923391307661E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-1E94-43A4-933D-4887E6607D28}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1089988304"/>
+        <c:axId val="1000130416"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1089988304"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="8.1999999999999993"/>
+          <c:min val="5"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="cross"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1000130416"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="0.2"/>
+        <c:minorUnit val="0.1"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1000130416"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="cross"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1089988304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2.5000000000000005E-3"/>
@@ -7343,7 +7343,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="114" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="120" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>
@@ -7354,7 +7354,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="95" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="120" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>
@@ -7365,7 +7365,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="95" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="120" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>
@@ -7376,13 +7376,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9645316" cy="6005763"/>
+    <xdr:ext cx="9640957" cy="6013174"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Gráfico 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{42A15EA2-6D11-4DAC-AC7B-FFE3E12FB981}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F17647F0-546F-42F1-AAC0-D1659261D9BB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7415,7 +7415,7 @@
         <xdr:cNvPr id="2" name="Gráfico 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F17647F0-546F-42F1-AAC0-D1659261D9BB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F80124B9-C9E4-4F0A-95BD-869279F1E153}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7442,13 +7442,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9640957" cy="6013174"/>
+    <xdr:ext cx="9645316" cy="6005763"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Gráfico 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F80124B9-C9E4-4F0A-95BD-869279F1E153}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{42A15EA2-6D11-4DAC-AC7B-FFE3E12FB981}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7770,8 +7770,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:AA1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11153,8 +11153,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:H31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
